--- a/netzwerke/jung-wien-exp/pivot-tables/jung-wien-ist-alle_pivot.xlsx
+++ b/netzwerke/jung-wien-exp/pivot-tables/jung-wien-ist-alle_pivot.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Arthur Schnitzler – Felix Salten</t>
+  </si>
   <si>
     <t>Arthur Schnitzler – Hermann Bahr</t>
   </si>
@@ -22,10 +25,10 @@
     <t>Arthur Schnitzler – Hugo von Hofmannsthal</t>
   </si>
   <si>
-    <t>Arthur Schnitzler – Richard Beer-Hofmann</t>
+    <t>Arthur Schnitzler – Paul Goldmann</t>
   </si>
   <si>
-    <t>Beer-Hofmann, Richard – Schnitzler, Arthur</t>
+    <t>Arthur Schnitzler – Richard Beer-Hofmann</t>
   </si>
   <si>
     <t>Felix Salten – Hermann Bahr</t>
@@ -37,22 +40,13 @@
     <t>Felix Salten – Richard Beer-Hofmann</t>
   </si>
   <si>
-    <t>Goldmann, Paul – Schnitzler, Arthur</t>
-  </si>
-  <si>
     <t>Hermann Bahr – Hugo von Hofmannsthal</t>
   </si>
   <si>
     <t>Hermann Bahr – Richard Beer-Hofmann</t>
   </si>
   <si>
-    <t>Hofmannsthal, Hugo von – Schnitzler, Arthur</t>
-  </si>
-  <si>
     <t>Hugo von Hofmannsthal – Richard Beer-Hofmann</t>
-  </si>
-  <si>
-    <t>Salten, Felix – Schnitzler, Arthur</t>
   </si>
   <si>
     <t>Year</t>
@@ -413,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,14 +450,8 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1888</v>
       </c>
@@ -477,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -489,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -500,14 +488,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1889</v>
       </c>
@@ -521,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -533,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -544,14 +526,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1890</v>
       </c>
@@ -565,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -577,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -586,42 +562,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1891</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>25</v>
@@ -630,42 +600,36 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1892</v>
       </c>
       <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>39</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>33</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>16</v>
@@ -674,42 +638,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
         <v>12</v>
       </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1893</v>
       </c>
       <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
       <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>46</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
       <c r="I7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>15</v>
@@ -718,33 +676,27 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
         <v>22</v>
       </c>
-      <c r="N7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1894</v>
       </c>
       <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -753,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>13</v>
@@ -762,42 +714,36 @@
         <v>9</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
         <v>25</v>
       </c>
-      <c r="N8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1895</v>
       </c>
       <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9">
         <v>53</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>11</v>
@@ -806,34 +752,28 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
         <v>17</v>
       </c>
-      <c r="N9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1896</v>
       </c>
       <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
       <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
         <v>55</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -841,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>26</v>
@@ -850,42 +790,36 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
         <v>8</v>
       </c>
-      <c r="N10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1897</v>
       </c>
       <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>36</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="F11">
         <v>51</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -894,42 +828,36 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
         <v>10</v>
       </c>
-      <c r="N11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1898</v>
       </c>
       <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>42</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
         <v>47</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
       <c r="G12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>37</v>
@@ -938,42 +866,36 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
         <v>23</v>
       </c>
-      <c r="N12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>1899</v>
       </c>
       <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>44</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
         <v>61</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>20</v>
@@ -982,42 +904,36 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
         <v>13</v>
       </c>
-      <c r="N13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1900</v>
       </c>
       <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>49</v>
+      </c>
+      <c r="F14">
         <v>38</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>30</v>
@@ -1026,42 +942,36 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>1901</v>
       </c>
       <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
         <v>28</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>26</v>
@@ -1070,42 +980,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
         <v>17</v>
       </c>
-      <c r="N15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>1902</v>
       </c>
       <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>23</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>46</v>
+      </c>
+      <c r="F16">
         <v>13</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>17</v>
@@ -1114,42 +1018,36 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
         <v>6</v>
       </c>
-      <c r="N16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>1903</v>
       </c>
       <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>35</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>29</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
       <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
         <v>14</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>29</v>
@@ -1158,42 +1056,36 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
         <v>9</v>
       </c>
-      <c r="N17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>1904</v>
       </c>
       <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
         <v>31</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>55</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
         <v>36</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>14</v>
       </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
       <c r="I18">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>28</v>
@@ -1202,42 +1094,36 @@
         <v>13</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>1905</v>
       </c>
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>23</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>18</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>8</v>
@@ -1246,42 +1132,36 @@
         <v>13</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
         <v>9</v>
       </c>
-      <c r="N19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>1906</v>
       </c>
       <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>21</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>13</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
       <c r="I20">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>10</v>
@@ -1292,40 +1172,34 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>1907</v>
       </c>
       <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>26</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>27</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1334,42 +1208,36 @@
         <v>8</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>1908</v>
       </c>
       <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>14</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
         <v>23</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1380,40 +1248,34 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>1909</v>
       </c>
       <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>26</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1422,42 +1284,36 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>1910</v>
       </c>
       <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>21</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1466,34 +1322,28 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>1911</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>12</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
         <v>7</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -1501,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1510,34 +1360,28 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>1912</v>
       </c>
       <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -1554,34 +1398,28 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>1913</v>
       </c>
       <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
       <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>8</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -1598,39 +1436,33 @@
         <v>3</v>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>1914</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>17</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>7</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1642,16 +1474,10 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>1915</v>
       </c>
@@ -1659,25 +1485,25 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>8</v>
@@ -1686,33 +1512,27 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>1916</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>7</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1730,33 +1550,27 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>1917</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>7</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1774,36 +1588,30 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>1918</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1818,33 +1626,27 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>1919</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1862,16 +1664,10 @@
         <v>6</v>
       </c>
       <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>1920</v>
       </c>
@@ -1879,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>8</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1906,33 +1702,27 @@
         <v>4</v>
       </c>
       <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>1921</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1950,39 +1740,33 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>1922</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1994,39 +1778,33 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>1923</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2040,31 +1818,25 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>1924</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>6</v>
       </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2082,42 +1854,36 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>1925</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>8</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
       <c r="E39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>11</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2126,24 +1892,18 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>1926</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2152,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2170,42 +1930,36 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>1927</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>3</v>
@@ -2214,42 +1968,36 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
         <v>5</v>
       </c>
-      <c r="N41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>1928</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2260,31 +2008,25 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>1929</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2302,42 +2044,36 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>1930</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2348,31 +2084,25 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>1931</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2381,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2391,12 +2121,6 @@
       </c>
       <c r="L45">
         <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/netzwerke/jung-wien-exp/pivot-tables/jung-wien-ist-alle_pivot.xlsx
+++ b/netzwerke/jung-wien-exp/pivot-tables/jung-wien-ist-alle_pivot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Arthur Schnitzler – Felix Salten</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Hugo von Hofmannsthal – Richard Beer-Hofmann</t>
+  </si>
+  <si>
+    <t>Paul Goldmann – Richard Beer-Hofmann</t>
   </si>
   <si>
     <t>Year</t>
@@ -407,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -450,8 +453,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1888</v>
       </c>
@@ -488,8 +494,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1889</v>
       </c>
@@ -526,8 +535,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1890</v>
       </c>
@@ -564,8 +576,11 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1891</v>
       </c>
@@ -602,8 +617,11 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>1892</v>
       </c>
@@ -640,8 +658,11 @@
       <c r="L6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>1893</v>
       </c>
@@ -678,8 +699,11 @@
       <c r="L7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>1894</v>
       </c>
@@ -716,8 +740,11 @@
       <c r="L8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1895</v>
       </c>
@@ -754,8 +781,11 @@
       <c r="L9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>1896</v>
       </c>
@@ -792,8 +822,11 @@
       <c r="L10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>1897</v>
       </c>
@@ -830,8 +863,11 @@
       <c r="L11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>1898</v>
       </c>
@@ -868,8 +904,11 @@
       <c r="L12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>1899</v>
       </c>
@@ -906,8 +945,11 @@
       <c r="L13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>1900</v>
       </c>
@@ -944,8 +986,11 @@
       <c r="L14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>1901</v>
       </c>
@@ -982,8 +1027,11 @@
       <c r="L15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>1902</v>
       </c>
@@ -1020,8 +1068,11 @@
       <c r="L16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>1903</v>
       </c>
@@ -1058,8 +1109,11 @@
       <c r="L17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>1904</v>
       </c>
@@ -1096,8 +1150,11 @@
       <c r="L18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>1905</v>
       </c>
@@ -1134,8 +1191,11 @@
       <c r="L19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>1906</v>
       </c>
@@ -1172,8 +1232,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>1907</v>
       </c>
@@ -1210,8 +1273,11 @@
       <c r="L21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>1908</v>
       </c>
@@ -1248,8 +1314,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>1909</v>
       </c>
@@ -1286,8 +1355,11 @@
       <c r="L23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>1910</v>
       </c>
@@ -1324,8 +1396,11 @@
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>1911</v>
       </c>
@@ -1362,8 +1437,11 @@
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>1912</v>
       </c>
@@ -1400,8 +1478,11 @@
       <c r="L26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>1913</v>
       </c>
@@ -1438,8 +1519,11 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>1914</v>
       </c>
@@ -1476,8 +1560,11 @@
       <c r="L28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>1915</v>
       </c>
@@ -1514,8 +1601,11 @@
       <c r="L29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>1916</v>
       </c>
@@ -1552,8 +1642,11 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>1917</v>
       </c>
@@ -1590,8 +1683,11 @@
       <c r="L31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>1918</v>
       </c>
@@ -1628,8 +1724,11 @@
       <c r="L32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>1919</v>
       </c>
@@ -1666,8 +1765,11 @@
       <c r="L33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>1920</v>
       </c>
@@ -1704,8 +1806,11 @@
       <c r="L34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>1921</v>
       </c>
@@ -1742,8 +1847,11 @@
       <c r="L35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>1922</v>
       </c>
@@ -1780,8 +1888,11 @@
       <c r="L36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>1923</v>
       </c>
@@ -1818,8 +1929,11 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>1924</v>
       </c>
@@ -1856,8 +1970,11 @@
       <c r="L38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>1925</v>
       </c>
@@ -1894,8 +2011,11 @@
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>1926</v>
       </c>
@@ -1932,8 +2052,11 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>1927</v>
       </c>
@@ -1970,8 +2093,11 @@
       <c r="L41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>1928</v>
       </c>
@@ -2008,8 +2134,11 @@
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>1929</v>
       </c>
@@ -2046,8 +2175,11 @@
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>1930</v>
       </c>
@@ -2084,8 +2216,11 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>1931</v>
       </c>
@@ -2120,6 +2255,9 @@
         <v>0</v>
       </c>
       <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>0</v>
       </c>
     </row>

--- a/netzwerke/jung-wien-exp/pivot-tables/jung-wien-ist-alle_pivot.xlsx
+++ b/netzwerke/jung-wien-exp/pivot-tables/jung-wien-ist-alle_pivot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Arthur Schnitzler – Felix Salten</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Hermann Bahr – Hugo von Hofmannsthal</t>
+  </si>
+  <si>
+    <t>Hermann Bahr – Paul Goldmann</t>
   </si>
   <si>
     <t>Hermann Bahr – Richard Beer-Hofmann</t>
@@ -410,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,8 +459,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1888</v>
       </c>
@@ -497,8 +503,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1889</v>
       </c>
@@ -538,8 +547,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>1890</v>
       </c>
@@ -574,13 +586,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>1891</v>
       </c>
@@ -612,16 +627,19 @@
         <v>25</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>1892</v>
       </c>
@@ -656,13 +674,16 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>12</v>
       </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>1893</v>
       </c>
@@ -697,13 +718,16 @@
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>22</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>1894</v>
       </c>
@@ -735,16 +759,19 @@
         <v>13</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>25</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>1895</v>
       </c>
@@ -776,16 +803,19 @@
         <v>11</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>17</v>
       </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>1896</v>
       </c>
@@ -805,7 +835,7 @@
         <v>55</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -817,16 +847,19 @@
         <v>26</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
         <v>8</v>
       </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>1897</v>
       </c>
@@ -846,7 +879,7 @@
         <v>51</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -858,16 +891,19 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>1898</v>
       </c>
@@ -887,7 +923,7 @@
         <v>47</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -899,16 +935,19 @@
         <v>37</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>23</v>
       </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>1899</v>
       </c>
@@ -928,7 +967,7 @@
         <v>61</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -940,16 +979,19 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>13</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>1900</v>
       </c>
@@ -969,7 +1011,7 @@
         <v>38</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -981,16 +1023,19 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
         <v>11</v>
       </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>1901</v>
       </c>
@@ -1010,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1025,13 +1070,16 @@
         <v>0</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>17</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>1902</v>
       </c>
@@ -1063,16 +1111,19 @@
         <v>17</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>1903</v>
       </c>
@@ -1092,7 +1143,7 @@
         <v>22</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -1104,16 +1155,19 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
         <v>9</v>
       </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>1904</v>
       </c>
@@ -1133,7 +1187,7 @@
         <v>36</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H18">
         <v>14</v>
@@ -1145,16 +1199,19 @@
         <v>28</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>13</v>
       </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>1905</v>
       </c>
@@ -1174,7 +1231,7 @@
         <v>25</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -1186,16 +1243,19 @@
         <v>8</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>13</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>9</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>1906</v>
       </c>
@@ -1215,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1227,16 +1287,19 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>1907</v>
       </c>
@@ -1256,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1268,16 +1331,19 @@
         <v>2</v>
       </c>
       <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>8</v>
       </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>1908</v>
       </c>
@@ -1297,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1309,16 +1375,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>1909</v>
       </c>
@@ -1338,7 +1407,7 @@
         <v>26</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1350,16 +1419,19 @@
         <v>4</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>1910</v>
       </c>
@@ -1379,7 +1451,7 @@
         <v>33</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1394,13 +1466,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>1911</v>
       </c>
@@ -1420,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1435,13 +1510,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>1912</v>
       </c>
@@ -1461,7 +1539,7 @@
         <v>16</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1473,16 +1551,19 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>1913</v>
       </c>
@@ -1502,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1514,16 +1595,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>1914</v>
       </c>
@@ -1555,16 +1639,19 @@
         <v>16</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>1915</v>
       </c>
@@ -1599,13 +1686,16 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>1916</v>
       </c>
@@ -1637,16 +1727,19 @@
         <v>20</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>1917</v>
       </c>
@@ -1666,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1681,13 +1774,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>1918</v>
       </c>
@@ -1707,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1719,16 +1815,19 @@
         <v>17</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>1919</v>
       </c>
@@ -1760,16 +1859,19 @@
         <v>3</v>
       </c>
       <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>6</v>
       </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
       <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>1920</v>
       </c>
@@ -1801,16 +1903,19 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>1921</v>
       </c>
@@ -1830,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1845,13 +1950,16 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>1922</v>
       </c>
@@ -1886,13 +1994,16 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>1923</v>
       </c>
@@ -1924,16 +2035,19 @@
         <v>5</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>1924</v>
       </c>
@@ -1968,13 +2082,16 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>1925</v>
       </c>
@@ -1994,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>11</v>
@@ -2006,16 +2123,19 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>1926</v>
       </c>
@@ -2050,13 +2170,16 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>1927</v>
       </c>
@@ -2076,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -2091,13 +2214,16 @@
         <v>0</v>
       </c>
       <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>5</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>1928</v>
       </c>
@@ -2137,8 +2263,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>1929</v>
       </c>
@@ -2173,13 +2302,16 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>1930</v>
       </c>
@@ -2219,8 +2351,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>1931</v>
       </c>
@@ -2258,6 +2393,9 @@
         <v>0</v>
       </c>
       <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>0</v>
       </c>
     </row>
